--- a/inst/extdata/ExampleDQOCompleteness_final.xlsx
+++ b/inst/extdata/ExampleDQOCompleteness_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbeck\R\win-library\4.1\MassWateR\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\MassWateR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5381D131-DE9B-49C7-8A48-E6E186B34595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A8266-2B82-489B-9CF3-9154204D77C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="2250" windowWidth="19455" windowHeight="9315" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
+    <workbookView xWindow="29520" yWindow="3090" windowWidth="19455" windowHeight="9315" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Completeness" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -48,27 +46,15 @@
     <t>Spike/Check Accuracy</t>
   </si>
   <si>
-    <t>Water Temp</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
     <t>TSS</t>
   </si>
   <si>
     <t>TP</t>
   </si>
   <si>
-    <t>ortho – P</t>
-  </si>
-  <si>
     <t>NO3</t>
   </si>
   <si>
@@ -78,9 +64,6 @@
     <t>Chloride</t>
   </si>
   <si>
-    <t>Chl-a</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -94,6 +77,21 @@
   </si>
   <si>
     <t>Frequency %</t>
+  </si>
+  <si>
+    <t>water temperature</t>
+  </si>
+  <si>
+    <t>DO concentration</t>
+  </si>
+  <si>
+    <t>sp conductivity</t>
+  </si>
+  <si>
+    <t>orthoP</t>
+  </si>
+  <si>
+    <t>chlorophyll a</t>
   </si>
 </sst>
 </file>
@@ -525,7 +523,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,14 +536,14 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -559,10 +557,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -571,7 +569,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>10</v>
@@ -580,13 +578,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6">
         <v>90</v>
@@ -594,7 +592,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6">
         <v>10</v>
@@ -603,10 +601,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6">
         <v>10</v>
@@ -617,7 +615,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6">
         <v>10</v>
@@ -626,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -640,7 +638,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6">
         <v>10</v>
@@ -649,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
@@ -663,7 +661,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>10</v>
@@ -686,7 +684,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -709,7 +707,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6">
         <v>10</v>
@@ -732,7 +730,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6">
         <v>10</v>
@@ -755,7 +753,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -778,7 +776,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
@@ -801,7 +799,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6">
         <v>10</v>

--- a/inst/extdata/ExampleDQOCompleteness_final.xlsx
+++ b/inst/extdata/ExampleDQOCompleteness_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\MassWateR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A8266-2B82-489B-9CF3-9154204D77C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6A4877-E62D-49E1-8161-9F099DE88472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="3090" windowWidth="19455" windowHeight="9315" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
+    <workbookView xWindow="31200" yWindow="945" windowWidth="19455" windowHeight="9315" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Completeness" sheetId="2" r:id="rId1"/>
@@ -46,9 +46,18 @@
     <t>Spike/Check Accuracy</t>
   </si>
   <si>
+    <t>Water Temp</t>
+  </si>
+  <si>
     <t>pH</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
     <t>TSS</t>
   </si>
   <si>
@@ -79,19 +88,10 @@
     <t>Frequency %</t>
   </si>
   <si>
-    <t>water temperature</t>
-  </si>
-  <si>
-    <t>DO concentration</t>
-  </si>
-  <si>
-    <t>sp conductivity</t>
-  </si>
-  <si>
-    <t>orthoP</t>
-  </si>
-  <si>
-    <t>chlorophyll a</t>
+    <t>Ortho P</t>
+  </si>
+  <si>
+    <t>Chl a</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,14 +536,14 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -557,10 +557,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6">
         <v>10</v>
@@ -578,13 +578,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6">
         <v>90</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6">
         <v>10</v>
@@ -601,10 +601,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6">
         <v>10</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6">
         <v>10</v>
@@ -624,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>10</v>
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6">
         <v>10</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6">
         <v>10</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>

--- a/inst/extdata/ExampleDQOCompleteness_final.xlsx
+++ b/inst/extdata/ExampleDQOCompleteness_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\MassWateR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6A4877-E62D-49E1-8161-9F099DE88472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662323AC-169F-49B8-B8D5-4350A03C2C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31200" yWindow="945" windowWidth="19455" windowHeight="9315" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
@@ -64,12 +64,6 @@
     <t>TP</t>
   </si>
   <si>
-    <t>NO3</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
     <t>Chloride</t>
   </si>
   <si>
@@ -92,6 +86,12 @@
   </si>
   <si>
     <t>Chl a</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,14 +536,14 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -557,10 +557,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -578,13 +578,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6">
         <v>90</v>
@@ -601,10 +601,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="6">
         <v>10</v>
@@ -624,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6">
         <v>10</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6">
         <v>10</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6">
         <v>10</v>
